--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3787.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3787.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.921592878773663</v>
+        <v>4.404847145080566</v>
       </c>
       <c r="B1">
-        <v>2.360671718239932</v>
+        <v>3.317728281021118</v>
       </c>
       <c r="C1">
-        <v>2.534700125515486</v>
+        <v>2.498995780944824</v>
       </c>
       <c r="D1">
-        <v>3.046773824140123</v>
+        <v>2.375333786010742</v>
       </c>
       <c r="E1">
-        <v>3.318751831719244</v>
+        <v>2.444192886352539</v>
       </c>
     </row>
   </sheetData>
